--- a/BackTest/2020-01-20 BackTest XSR.xlsx
+++ b/BackTest/2020-01-20 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-984792.0353271065</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1353464.199727106</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1751675.091827106</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1463176.565627106</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1462937.345327107</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3205371.524027106</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3435870.805727107</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3176391.823827107</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3863775.465227107</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3876100.442827106</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3569615.538827106</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3569471.538827106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3746185.300827106</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4040315.856927106</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4004230.500427106</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4004130.500427106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4289626.923527106</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-4464090.122127105</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4219296.178027106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3961222.535727106</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-4187176.306227106</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3520262.918227105</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3519892.049027105</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3382984.499827105</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3383506.746327105</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3384537.383127104</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3858248.176727104</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3428640.496127104</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3584705.173027104</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3913369.648927104</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3728919.776727104</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3398484.151927104</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3698804.709627104</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3393705.749527104</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3602635.448927104</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3827521.903427104</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4168700.423427104</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4168700.423427104</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3746574.178727104</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3538227.601627104</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3355856.865827104</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3229803.580027104</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3402304.579127104</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3668954.684227104</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3421435.221627104</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3420463.035027104</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4444511.288927104</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4443599.904466416</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4442934.015066416</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4765141.928305727</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5073218.367405728</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-5046030.389305728</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-5606014.071305728</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6032045.230705728</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5822258.051005728</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5634642.407505727</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4298443.829805728</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4299069.173205728</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5155553.323905728</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5272706.325605728</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6122486.270305727</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5884338.601305727</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-6379034.703505727</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-7797760.892005727</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8346007.893805726</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8210540.740705727</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-8360618.486705727</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-8309749.543705727</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-8474248.240505727</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-8472344.688405726</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-8472344.688405726</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-8005891.040305726</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-8064772.441605726</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-8671140.604105726</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-8672234.375505727</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-8737643.945005726</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-8558158.485305727</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-9217592.979905726</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-9502536.173105726</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-9599491.135005726</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-9599491.135005726</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-9928877.013305726</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-9649829.527005725</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-9844182.680205725</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-9792062.806105725</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-9792062.806105725</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-9468072.353905726</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-9875864.393105727</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-9454371.122205727</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-9307023.970205726</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-9306449.022205725</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-9004934.499005726</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-8646581.326605726</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-8526210.378005726</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-8439833.872605726</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-8600950.779105727</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-8298943.764705727</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-8298579.553905727</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-8574105.467905728</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-8574105.467905728</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-9071370.207105627</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-9166993.792305525</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-9166898.394405525</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-9380638.991005525</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-9172587.806705525</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-8994625.320705526</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-8994625.320705526</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-8634634.288405526</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-8640629.841605527</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-8301002.975705528</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-8539534.857005527</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-8360263.670805527</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-7979585.682505527</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-7979585.682505527</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-7727139.466105526</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-7776130.251405526</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-8015856.654305425</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-7515217.186305425</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-7798417.756905425</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-7798417.756905425</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-7251829.730705425</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-7651362.861605425</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-10975973.89680542</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-10975973.89680542</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10479388.74910542</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-10479303.74910542</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11258371.35050542</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-11258371.35050542</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-11235371.35050542</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11506367.42420542</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11506367.42420542</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-11746606.53900542</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -23386,11 +23386,17 @@
         <v>-20301667.95086462</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>5.723</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23425,17 @@
         <v>-20925293.05166462</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23464,17 @@
         <v>-20925293.05166462</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>5.684</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23503,17 @@
         <v>-20470605.54386462</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>5.684</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,15 +23542,17 @@
         <v>-20471874.34926462</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>5.713</v>
       </c>
-      <c r="J701" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,15 +23581,15 @@
         <v>-20165712.75236462</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L702" t="n">
@@ -23594,12 +23620,12 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23633,12 +23659,12 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23672,12 +23698,12 @@
         <v>-19790252.06316462</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23711,12 +23737,12 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>5.708</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23750,12 +23776,12 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23789,12 +23815,12 @@
         <v>-20018053.90196462</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23828,12 +23854,12 @@
         <v>-20320854.59406462</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
         <v>5.713</v>
       </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23867,12 +23893,12 @@
         <v>-20221269.33956462</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>5.697</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23906,12 +23932,12 @@
         <v>-19994679.35836462</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23945,12 +23971,12 @@
         <v>-19994679.35836462</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>5.702</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23984,12 +24010,12 @@
         <v>-20924545.38306462</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>5.702</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24026,9 +24052,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24062,14 +24086,12 @@
         <v>-20223815.29096462</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>5.702</v>
       </c>
-      <c r="J715" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24103,12 +24125,12 @@
         <v>-20225446.78266462</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>5.709</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24142,14 +24164,12 @@
         <v>-20264463.61566462</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>5.701</v>
       </c>
-      <c r="J717" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24183,14 +24203,12 @@
         <v>-19838147.75496462</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>5.697</v>
       </c>
-      <c r="J718" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24224,14 +24242,12 @@
         <v>-20761355.20496462</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>5.709</v>
       </c>
-      <c r="J719" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,14 +24281,12 @@
         <v>-20267969.36146462</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>5.701</v>
       </c>
-      <c r="J720" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24306,14 +24320,12 @@
         <v>-21031117.53696462</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>5.713</v>
       </c>
-      <c r="J721" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24347,14 +24359,12 @@
         <v>-20555441.70526462</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>5.696</v>
       </c>
-      <c r="J722" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24388,14 +24398,12 @@
         <v>-20191943.68196462</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>5.713</v>
       </c>
-      <c r="J723" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24429,14 +24437,12 @@
         <v>-20062671.10736462</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>5.719</v>
       </c>
-      <c r="J724" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24470,14 +24476,12 @@
         <v>-20315633.84376462</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>5.734</v>
       </c>
-      <c r="J725" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24511,14 +24515,12 @@
         <v>-19919831.8899364</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>5.724</v>
       </c>
-      <c r="J726" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24552,14 +24554,12 @@
         <v>-19788546.0809364</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>5.753</v>
       </c>
-      <c r="J727" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24593,14 +24593,10 @@
         <v>-19513004.2497364</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J728" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24634,14 +24630,10 @@
         <v>-19860691.3240364</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J729" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24675,14 +24667,10 @@
         <v>-19860603.3240364</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>5.732</v>
-      </c>
-      <c r="J730" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24716,14 +24704,10 @@
         <v>-19860603.3240364</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J731" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24757,14 +24741,10 @@
         <v>-19339682.1682364</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J732" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24798,14 +24778,10 @@
         <v>-19327794.5908364</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J733" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24839,14 +24815,10 @@
         <v>-19327794.5908364</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J734" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24880,14 +24852,10 @@
         <v>-19327446.3456364</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J735" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24921,14 +24889,10 @@
         <v>-18622346.5508364</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J736" t="n">
-        <v>5.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24965,9 +24929,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25004,9 +24966,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25043,9 +25003,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25082,9 +25040,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25121,9 +25077,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25160,9 +25114,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25199,9 +25151,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25238,9 +25188,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25277,9 +25225,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25316,9 +25262,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25355,9 +25299,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25394,9 +25336,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25433,9 +25373,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25472,9 +25410,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25511,9 +25447,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25550,9 +25484,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25586,12 +25518,12 @@
         <v>-19239833.1879364</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>5.828</v>
+      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25628,9 +25560,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25664,12 +25594,12 @@
         <v>-19239833.1879364</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25703,12 +25633,12 @@
         <v>-19519346.4704364</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25742,12 +25672,12 @@
         <v>-20203420.9678364</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25781,14 +25711,12 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>5.783</v>
       </c>
-      <c r="J758" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25822,12 +25750,12 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25861,12 +25789,12 @@
         <v>-20676769.1958364</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25900,12 +25828,12 @@
         <v>-20569297.3552364</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>5.787</v>
+      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25939,12 +25867,12 @@
         <v>-20254069.3436364</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25978,12 +25906,12 @@
         <v>-20253640.4798364</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26017,12 +25945,12 @@
         <v>-20583608.1869364</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26059,9 +25987,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26098,9 +26024,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26134,12 +26058,12 @@
         <v>-20901267.8871364</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>5.888</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26173,12 +26097,12 @@
         <v>-20834661.8945364</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26212,12 +26136,12 @@
         <v>-21250863.0661364</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26251,12 +26175,12 @@
         <v>-21255099.8111364</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26290,12 +26214,12 @@
         <v>-21498234.8399364</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26329,12 +26253,12 @@
         <v>-21731112.3391364</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26368,12 +26292,12 @@
         <v>-21730581.5144364</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26407,12 +26331,12 @@
         <v>-21314459.8198364</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26446,12 +26370,12 @@
         <v>-21314371.8198364</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26485,12 +26409,12 @@
         <v>-20142997.14329735</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>5.713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26527,9 +26451,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26566,9 +26488,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26605,9 +26525,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,9 +26562,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26683,9 +26599,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26722,9 +26636,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26761,9 +26673,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26800,9 +26710,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26839,9 +26747,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26878,9 +26784,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26917,9 +26821,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26956,9 +26858,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26995,9 +26895,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27034,9 +26932,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27073,9 +26969,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>5.713</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27087,6 +26981,6 @@
       <c r="M791" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XSR.xlsx
+++ b/BackTest/2020-01-20 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-984792.0353271065</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3205371.524027106</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3435870.805727107</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3176391.823827107</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3863775.465227107</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3876100.442827106</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3569615.538827106</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3569471.538827106</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3746185.300827106</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4040315.856927106</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4004230.500427106</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4004130.500427106</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4289626.923527106</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-4464090.122127105</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4219296.178027106</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3961222.535727106</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-4187176.306227106</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3520262.918227105</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3519892.049027105</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3382984.499827105</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3383506.746327105</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3384537.383127104</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3858248.176727104</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3428640.496127104</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3584705.173027104</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3913369.648927104</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3728919.776727104</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3398484.151927104</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3698804.709627104</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3393705.749527104</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3602635.448927104</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3827521.903427104</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4168700.423427104</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4168700.423427104</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3746574.178727104</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3538227.601627104</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3355856.865827104</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3229803.580027104</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3402304.579127104</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3668954.684227104</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3421435.221627104</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3420463.035027104</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4444511.288927104</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4443599.904466416</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4442934.015066416</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4765141.928305727</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5073218.367405728</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-5046030.389305728</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5634642.407505727</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4298443.829805728</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4299069.173205728</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5155553.323905728</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5272706.325605728</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6122486.270305727</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5884338.601305727</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-6379034.703505727</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-7797760.892005727</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8346007.893805726</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8210540.740705727</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-8360618.486705727</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-8309749.543705727</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-8474248.240505727</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-8472344.688405726</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-8472344.688405726</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-8005891.040305726</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-8064772.441605726</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-8671140.604105726</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-8672234.375505727</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-8737643.945005726</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-8558158.485305727</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-9217592.979905726</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-9502536.173105726</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-9599491.135005726</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-9599491.135005726</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-9928877.013305726</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-9649829.527005725</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-9844182.680205725</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-9792062.806105725</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-9792062.806105725</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-9468072.353905726</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-9875864.393105727</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-9454371.122205727</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-9307023.970205726</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-9306449.022205725</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-9004934.499005726</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-8646581.326605726</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-8526210.378005726</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-8439833.872605726</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-8600950.779105727</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-8298943.764705727</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-8298579.553905727</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-8574105.467905728</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-8574105.467905728</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-9071370.207105627</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-9166993.792305525</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-9166898.394405525</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-9380638.991005525</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-9172587.806705525</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-8994625.320705526</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-8994625.320705526</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-8634634.288405526</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-8640629.841605527</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-8301002.975705528</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-8539534.857005527</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-8360263.670805527</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-7979585.682505527</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-7979585.682505527</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-7727139.466105526</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-7776130.251405526</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-8015856.654305425</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-7515217.186305425</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-7798417.756905425</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-7798417.756905425</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-7251829.730705425</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-7651362.861605425</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-10975973.89680542</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-10975973.89680542</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10479388.74910542</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-10479303.74910542</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11258371.35050542</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-11258371.35050542</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-11235371.35050542</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11506367.42420542</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11506367.42420542</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -23386,251 +23386,237 @@
         <v>-20301667.95086462</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>5.723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="C698" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="D698" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E698" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="F698" t="n">
+        <v>623625.1008</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-20925293.05166462</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="C699" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="D699" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="E699" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="F699" t="n">
+        <v>391.5358</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-20925293.05166462</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>5.686</v>
+      </c>
+      <c r="C700" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="D700" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="E700" t="n">
+        <v>5.686</v>
+      </c>
+      <c r="F700" t="n">
+        <v>454687.5078</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-20470605.54386462</v>
+      </c>
+      <c r="H700" t="n">
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="J700" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="C701" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="D701" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="E701" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1268.8054</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-20471874.34926462</v>
+      </c>
+      <c r="H701" t="n">
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="J701" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>5.711</v>
+      </c>
+      <c r="C702" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="D702" t="n">
+        <v>5.711</v>
+      </c>
+      <c r="E702" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="F702" t="n">
+        <v>306161.5969</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-20165712.75236462</v>
+      </c>
+      <c r="H702" t="n">
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="J702" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="C703" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="D703" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="E703" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="F703" t="n">
+        <v>57980.1682</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-20223692.92056462</v>
+      </c>
+      <c r="H703" t="n">
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>5.687</v>
+      </c>
+      <c r="J703" t="n">
+        <v>5.684</v>
+      </c>
+      <c r="K703" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>5.652</v>
-      </c>
-      <c r="C698" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="D698" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E698" t="n">
-        <v>5.652</v>
-      </c>
-      <c r="F698" t="n">
-        <v>623625.1008</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-20925293.05166462</v>
-      </c>
-      <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="C699" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="D699" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="E699" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="F699" t="n">
-        <v>391.5358</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-20925293.05166462</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>5.686</v>
-      </c>
-      <c r="C700" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="D700" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="E700" t="n">
-        <v>5.686</v>
-      </c>
-      <c r="F700" t="n">
-        <v>454687.5078</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-20470605.54386462</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="C701" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="D701" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="E701" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="F701" t="n">
-        <v>1268.8054</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-20471874.34926462</v>
-      </c>
-      <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>5.711</v>
-      </c>
-      <c r="C702" t="n">
-        <v>5.687</v>
-      </c>
-      <c r="D702" t="n">
-        <v>5.711</v>
-      </c>
-      <c r="E702" t="n">
-        <v>5.687</v>
-      </c>
-      <c r="F702" t="n">
-        <v>306161.5969</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-20165712.75236462</v>
-      </c>
-      <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>5.687</v>
-      </c>
-      <c r="C703" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="D703" t="n">
-        <v>5.687</v>
-      </c>
-      <c r="E703" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="F703" t="n">
-        <v>57980.1682</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-20223692.92056462</v>
-      </c>
-      <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>5.687</v>
-      </c>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23659,12 +23645,12 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23703,7 +23689,9 @@
       <c r="I705" t="n">
         <v>5.685</v>
       </c>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23742,7 +23730,9 @@
       <c r="I706" t="n">
         <v>5.708</v>
       </c>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23776,12 +23766,12 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>5.696</v>
-      </c>
-      <c r="J707" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23815,12 +23805,12 @@
         <v>-20018053.90196462</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>5.696</v>
-      </c>
-      <c r="J708" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23854,12 +23844,12 @@
         <v>-20320854.59406462</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="J709" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23893,12 +23883,12 @@
         <v>-20221269.33956462</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>5.697</v>
-      </c>
-      <c r="J710" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23932,12 +23922,12 @@
         <v>-19994679.35836462</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J711" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23971,12 +23961,12 @@
         <v>-19994679.35836462</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>5.702</v>
-      </c>
-      <c r="J712" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24010,12 +24000,12 @@
         <v>-20924545.38306462</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>5.702</v>
-      </c>
-      <c r="J713" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24052,7 +24042,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24086,12 +24078,12 @@
         <v>-20223815.29096462</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>5.702</v>
-      </c>
-      <c r="J715" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24125,12 +24117,12 @@
         <v>-20225446.78266462</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>5.709</v>
-      </c>
-      <c r="J716" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24164,12 +24156,12 @@
         <v>-20264463.61566462</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>5.701</v>
-      </c>
-      <c r="J717" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24208,7 +24200,9 @@
       <c r="I718" t="n">
         <v>5.697</v>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24242,12 +24236,12 @@
         <v>-20761355.20496462</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>5.709</v>
-      </c>
-      <c r="J719" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24281,12 +24275,12 @@
         <v>-20267969.36146462</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>5.701</v>
-      </c>
-      <c r="J720" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24320,12 +24314,12 @@
         <v>-21031117.53696462</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="J721" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24359,12 +24353,12 @@
         <v>-20555441.70526462</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>5.696</v>
-      </c>
-      <c r="J722" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24398,12 +24392,12 @@
         <v>-20191943.68196462</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>5.713</v>
-      </c>
-      <c r="J723" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24437,12 +24431,12 @@
         <v>-20062671.10736462</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>5.719</v>
-      </c>
-      <c r="J724" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24476,12 +24470,12 @@
         <v>-20315633.84376462</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>5.734</v>
-      </c>
-      <c r="J725" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24515,12 +24509,12 @@
         <v>-19919831.8899364</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>5.724</v>
-      </c>
-      <c r="J726" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24554,12 +24548,12 @@
         <v>-19788546.0809364</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>5.753</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24596,7 +24590,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24633,7 +24629,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24670,7 +24668,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24707,7 +24707,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24744,7 +24746,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24781,7 +24785,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24818,7 +24824,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24855,7 +24863,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24892,7 +24902,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24929,7 +24941,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24966,7 +24980,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25003,7 +25019,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25040,7 +25058,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25077,7 +25097,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25114,7 +25136,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25151,7 +25175,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25188,7 +25214,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25225,7 +25253,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25262,7 +25292,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25299,7 +25331,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25336,7 +25370,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25373,7 +25409,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25410,7 +25448,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25447,7 +25487,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25484,7 +25526,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25518,12 +25562,12 @@
         <v>-19239833.1879364</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="J753" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25560,7 +25604,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25594,12 +25640,12 @@
         <v>-19239833.1879364</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J755" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25633,12 +25679,12 @@
         <v>-19519346.4704364</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J756" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25672,12 +25718,12 @@
         <v>-20203420.9678364</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="J757" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25711,12 +25757,12 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>5.783</v>
-      </c>
-      <c r="J758" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25750,19 +25796,19 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>5.805</v>
-      </c>
-      <c r="J759" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>5.684</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L759" t="n">
-        <v>1</v>
+        <v>1.016287825475018</v>
       </c>
       <c r="M759" t="inlineStr"/>
     </row>
@@ -25789,17 +25835,11 @@
         <v>-20676769.1958364</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>5.805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25828,17 +25868,11 @@
         <v>-20569297.3552364</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>5.787</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25867,17 +25901,11 @@
         <v>-20254069.3436364</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25906,17 +25934,11 @@
         <v>-20253640.4798364</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25945,17 +25967,11 @@
         <v>-20583608.1869364</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25988,11 +26004,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26025,11 +26037,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26058,17 +26066,11 @@
         <v>-20901267.8871364</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>5.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26097,17 +26099,11 @@
         <v>-20834661.8945364</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>5.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26136,17 +26132,11 @@
         <v>-21250863.0661364</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>5.879</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26175,17 +26165,11 @@
         <v>-21255099.8111364</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>5.862</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26214,17 +26198,11 @@
         <v>-21498234.8399364</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>5.85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26253,17 +26231,11 @@
         <v>-21731112.3391364</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>5.847</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26292,17 +26264,11 @@
         <v>-21730581.5144364</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>5.845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26331,17 +26297,11 @@
         <v>-21314459.8198364</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>5.847</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26370,17 +26330,11 @@
         <v>-21314371.8198364</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>5.848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26409,17 +26363,11 @@
         <v>-20142997.14329735</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>5.85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26452,11 +26400,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26489,11 +26433,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26526,11 +26466,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26563,11 +26499,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26600,11 +26532,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26637,11 +26565,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26674,11 +26598,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26711,11 +26631,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26748,11 +26664,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26697,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26822,11 +26730,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26859,11 +26763,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26896,11 +26796,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26933,11 +26829,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26970,17 +26862,13 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
       <c r="M791" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XSR.xlsx
+++ b/BackTest/2020-01-20 BackTest XSR.xlsx
@@ -880,7 +880,7 @@
         <v>-1022932.640527106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-984792.0353271065</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1353547.324827106</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1353464.199727106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1751675.091827106</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1463176.565627106</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1462937.345327107</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1667728.307827106</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1667645.182727106</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3143501.861427106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3205371.524027106</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3435870.805727107</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3176391.823827107</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3863775.465227107</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4594551.055727106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3589455.434727105</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3382984.499827105</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3383506.746327105</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3384537.383127104</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3701608.055427104</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3858248.176727104</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3698804.709627104</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3393705.749527104</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3827521.903427104</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3538227.601627104</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3355856.865827104</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3229803.580027104</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3402304.579127104</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3668954.684227104</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3421435.221627104</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3420463.035027104</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3720238.156127104</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4028943.958227104</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4258902.487527104</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3835245.550427104</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4171428.921527104</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3682353.905827105</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4444511.288927104</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4443599.904466416</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4442934.015066416</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4765141.928305727</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5073218.367405728</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-5046030.389305728</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-5324789.287305728</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-5606014.071305728</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6032045.230705728</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5634642.407505727</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5407575.254905728</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5104552.086305728</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5104885.656105728</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4686982.228605728</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4298443.829805728</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4299069.173205728</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4723613.582505728</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5155553.323905728</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5272706.325605728</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-6034004.281605727</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -23485,14 +23485,10 @@
         <v>-20470605.54386462</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="J700" t="n">
-        <v>5.684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
@@ -23528,13 +23524,9 @@
         <v>5.713</v>
       </c>
       <c r="J701" t="n">
-        <v>5.684</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.713</v>
+      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23569,11 +23561,11 @@
         <v>5.685</v>
       </c>
       <c r="J702" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L702" t="n">
@@ -23604,17 +23596,15 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>5.687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L703" t="n">
@@ -23645,11 +23635,13 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>5.685</v>
+      </c>
       <c r="J704" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -23690,7 +23682,7 @@
         <v>5.685</v>
       </c>
       <c r="J705" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -23725,13 +23717,11 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>5.708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -23770,7 +23760,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -23805,11 +23795,13 @@
         <v>-20018053.90196462</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>5.696</v>
+      </c>
       <c r="J708" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -23844,11 +23836,13 @@
         <v>-20320854.59406462</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>5.713</v>
+      </c>
       <c r="J709" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -23883,11 +23877,13 @@
         <v>-20221269.33956462</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>5.697</v>
+      </c>
       <c r="J710" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -23926,7 +23922,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -23965,7 +23961,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24004,7 +24000,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24043,7 +24039,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24078,11 +24074,13 @@
         <v>-20223815.29096462</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>5.702</v>
+      </c>
       <c r="J715" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24117,11 +24115,13 @@
         <v>-20225446.78266462</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>5.709</v>
+      </c>
       <c r="J716" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24156,11 +24156,13 @@
         <v>-20264463.61566462</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>5.701</v>
+      </c>
       <c r="J717" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24201,7 +24203,7 @@
         <v>5.697</v>
       </c>
       <c r="J718" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24236,11 +24238,13 @@
         <v>-20761355.20496462</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>5.709</v>
+      </c>
       <c r="J719" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24275,11 +24279,13 @@
         <v>-20267969.36146462</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>5.701</v>
+      </c>
       <c r="J720" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24314,11 +24320,13 @@
         <v>-21031117.53696462</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>5.713</v>
+      </c>
       <c r="J721" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24353,11 +24361,13 @@
         <v>-20555441.70526462</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>5.696</v>
+      </c>
       <c r="J722" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24392,11 +24402,13 @@
         <v>-20191943.68196462</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>5.713</v>
+      </c>
       <c r="J723" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24431,11 +24443,13 @@
         <v>-20062671.10736462</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>5.719</v>
+      </c>
       <c r="J724" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24470,11 +24484,13 @@
         <v>-20315633.84376462</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>5.734</v>
+      </c>
       <c r="J725" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24509,11 +24525,13 @@
         <v>-19919831.8899364</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>5.724</v>
+      </c>
       <c r="J726" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24548,11 +24566,13 @@
         <v>-19788546.0809364</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>5.753</v>
+      </c>
       <c r="J727" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -24591,7 +24611,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -24630,7 +24650,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -24669,7 +24689,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -24708,7 +24728,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -24747,7 +24767,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -24786,7 +24806,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -24825,7 +24845,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -24864,7 +24884,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -24903,7 +24923,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -24942,7 +24962,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -24981,7 +25001,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25020,7 +25040,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25059,7 +25079,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25098,7 +25118,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25137,7 +25157,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25176,7 +25196,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25215,7 +25235,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25254,7 +25274,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25293,7 +25313,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25332,7 +25352,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25371,7 +25391,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -25410,7 +25430,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -25449,7 +25469,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -25488,7 +25508,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -25527,7 +25547,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -25566,7 +25586,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -25605,7 +25625,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -25644,7 +25664,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -25683,7 +25703,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -25722,7 +25742,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -25761,7 +25781,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -25796,19 +25816,19 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>5.684</v>
+        <v>5.713</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L759" t="n">
-        <v>1.016287825475018</v>
+        <v>1</v>
       </c>
       <c r="M759" t="inlineStr"/>
     </row>
@@ -25835,11 +25855,17 @@
         <v>-20676769.1958364</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25868,11 +25894,17 @@
         <v>-20569297.3552364</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25904,8 +25936,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25937,8 +25975,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25970,8 +26014,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26003,8 +26053,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26036,8 +26092,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26069,8 +26131,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26102,8 +26170,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26132,11 +26206,17 @@
         <v>-21250863.0661364</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26165,11 +26245,17 @@
         <v>-21255099.8111364</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26198,11 +26284,17 @@
         <v>-21498234.8399364</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26231,11 +26323,17 @@
         <v>-21731112.3391364</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26264,11 +26362,17 @@
         <v>-21730581.5144364</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26297,11 +26401,17 @@
         <v>-21314459.8198364</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26330,11 +26440,17 @@
         <v>-21314371.8198364</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26363,11 +26479,17 @@
         <v>-20142997.14329735</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26399,8 +26521,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26432,8 +26560,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26465,8 +26599,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26498,8 +26638,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26531,8 +26677,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26564,8 +26716,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26597,8 +26755,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26630,8 +26794,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26663,8 +26833,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26696,8 +26872,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26729,8 +26911,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26762,8 +26950,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26795,8 +26989,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26828,8 +27028,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26861,8 +27067,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
